--- a/medicine/Enfance/Affaire_Jean-Olivier_Guinant/Affaire_Jean-Olivier_Guinant.xlsx
+++ b/medicine/Enfance/Affaire_Jean-Olivier_Guinant/Affaire_Jean-Olivier_Guinant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'affaire Jean-Olivier Guinant est une affaire judiciaire mettant en cause le prêtre Jean-Olivier Guinant. Il est accusé d'avoir violé un enfant à partir de ses 11 ans et agressé sexuellement d'autres mineurs. Il est condamné à 12 ans de prison en 2008.
@@ -512,11 +524,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1997, le prêtre Jean-Olivier Guinant est condamné à 3 ans de réclusion avec sursis pour des attouchements sexuels. Il est alors déplacé à Paris où il ne doit pas approcher des mineurs. Puis il retourne dans la paroisse de Liginiac dans le diocèse de Tulle où il peut s'occuper à nouveau d'enfants[1].
-En novembre 2008, la cour d'assises de Tulle juge Jean-Olivier Guinant pour le viol, à plusieurs reprises, d'un jeune garçon entre 1988 et 1994 alors que celui-ci avait 11 ans au début des agressions. La victime orphelin de père et de mère passait souvent ses nuits chez le prêtre. Celui-ci est aussi accusé d'attouchements sexuels sur deux autres mineurs[2]. Le prêtre Jean-Claude Chantelauze vient témoigner lors du procès. Il indique qu'il confessait Jean-Olivier Guinant. Il était donc informé des agressions sexuelles sur les enfants, mais il ne pouvait rien dire car il se considérait « lié par le sacrement »[3]. Lors du procès, Jean-Olivier Guinant reconnait de nouvelles agressions sexuelles, de 2001 à 2002 et de 2004 à 2005, sur deux autres enfants[4].
-À l'issue de ce deuxième procès, Jean-Olivier Guinant est condamné par la cour d'assises de Tulle à 12 ans de prison[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1997, le prêtre Jean-Olivier Guinant est condamné à 3 ans de réclusion avec sursis pour des attouchements sexuels. Il est alors déplacé à Paris où il ne doit pas approcher des mineurs. Puis il retourne dans la paroisse de Liginiac dans le diocèse de Tulle où il peut s'occuper à nouveau d'enfants.
+En novembre 2008, la cour d'assises de Tulle juge Jean-Olivier Guinant pour le viol, à plusieurs reprises, d'un jeune garçon entre 1988 et 1994 alors que celui-ci avait 11 ans au début des agressions. La victime orphelin de père et de mère passait souvent ses nuits chez le prêtre. Celui-ci est aussi accusé d'attouchements sexuels sur deux autres mineurs. Le prêtre Jean-Claude Chantelauze vient témoigner lors du procès. Il indique qu'il confessait Jean-Olivier Guinant. Il était donc informé des agressions sexuelles sur les enfants, mais il ne pouvait rien dire car il se considérait « lié par le sacrement ». Lors du procès, Jean-Olivier Guinant reconnait de nouvelles agressions sexuelles, de 2001 à 2002 et de 2004 à 2005, sur deux autres enfants.
+À l'issue de ce deuxième procès, Jean-Olivier Guinant est condamné par la cour d'assises de Tulle à 12 ans de prison.
 </t>
         </is>
       </c>
